--- a/FSM/v1/FSM_v1.8.xlsx
+++ b/FSM/v1/FSM_v1.8.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1Sem\LPI\PI\FSM\v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\OneDrive\Documentos\MEEIC\3Ano\LPI\PI\PI-LPI_I\FSM\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CCBA21-55E0-4A48-B9B6-8D917703B0B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99646EF5-303F-4185-9ACA-B556B196F749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="-120" windowWidth="27690" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="35">
   <si>
     <t>B</t>
   </si>
@@ -110,12 +111,33 @@
   <si>
     <t>B1.S5 + B1'.(S1.S8)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Estado </t>
+  </si>
+  <si>
+    <t>BIT1</t>
+  </si>
+  <si>
+    <t>BIT0</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Q*</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,20 +168,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +216,13 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -577,13 +597,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,9 +778,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,184 +787,170 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - Cor1" xfId="1" builtinId="30"/>
     <cellStyle name="Cor1" xfId="2" builtinId="29"/>
+    <cellStyle name="Cor2" xfId="3" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1228,20 +1272,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="7" customWidth="1"/>
     <col min="4" max="5" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="47"/>
+    <col min="9" max="9" width="8.7109375" style="46"/>
     <col min="10" max="10" width="9.140625" style="7" customWidth="1"/>
     <col min="11" max="12" width="7.28515625" style="7" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" style="7" customWidth="1"/>
@@ -1263,7 +1307,7 @@
       <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="58" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -1287,13 +1331,13 @@
       <c r="J1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="52" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="53" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="8" t="s">
@@ -1319,7 +1363,7 @@
       <c r="B2" s="39">
         <v>0</v>
       </c>
-      <c r="C2" s="78">
+      <c r="C2" s="63">
         <v>0</v>
       </c>
       <c r="D2" s="14">
@@ -1331,13 +1375,13 @@
       <c r="F2" s="13">
         <v>0</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="71" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="47">
         <v>0</v>
       </c>
       <c r="J2" s="13">
@@ -1349,7 +1393,7 @@
       <c r="L2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="58">
+      <c r="M2" s="49">
         <v>0</v>
       </c>
       <c r="N2" s="27" t="s">
@@ -1367,14 +1411,14 @@
       <c r="R2" s="32">
         <v>0</v>
       </c>
-      <c r="T2" s="65" t="s">
+      <c r="T2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="67" t="s">
+      <c r="U2" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -1383,7 +1427,7 @@
       <c r="B3" s="40">
         <v>0</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="64">
         <v>0</v>
       </c>
       <c r="D3" s="18">
@@ -1395,8 +1439,8 @@
       <c r="F3" s="17">
         <v>1</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="61" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="29">
@@ -1429,10 +1473,10 @@
       <c r="R3" s="4">
         <v>0</v>
       </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
@@ -1441,7 +1485,7 @@
       <c r="B4" s="41">
         <v>0</v>
       </c>
-      <c r="C4" s="80">
+      <c r="C4" s="65">
         <v>0</v>
       </c>
       <c r="D4" s="5">
@@ -1453,23 +1497,23 @@
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="69"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="47">
         <v>0</v>
       </c>
       <c r="J4" s="13">
         <v>0</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="54">
         <v>0</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="59">
+      <c r="M4" s="50">
         <v>0</v>
       </c>
       <c r="N4" s="15" t="s">
@@ -1487,14 +1531,14 @@
       <c r="R4" s="32">
         <v>0</v>
       </c>
-      <c r="T4" s="65" t="s">
+      <c r="T4" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="66">
-        <v>0</v>
-      </c>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
+      <c r="U4" s="75">
+        <v>0</v>
+      </c>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -1503,7 +1547,7 @@
       <c r="B5" s="40">
         <v>0</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="64">
         <v>0</v>
       </c>
       <c r="D5" s="18">
@@ -1515,8 +1559,8 @@
       <c r="F5" s="17">
         <v>1</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="76" t="s">
+      <c r="G5" s="72"/>
+      <c r="H5" s="61" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="29">
@@ -1549,10 +1593,10 @@
       <c r="R5" s="4">
         <v>0</v>
       </c>
-      <c r="T5" s="65"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -1561,7 +1605,7 @@
       <c r="B6" s="41">
         <v>0</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="65">
         <v>0</v>
       </c>
       <c r="D6" s="5">
@@ -1573,23 +1617,23 @@
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="69"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="47">
         <v>0</v>
       </c>
       <c r="J6" s="13">
         <v>0</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="54">
         <v>0</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="50">
         <v>0</v>
       </c>
       <c r="N6" s="15" t="s">
@@ -1615,7 +1659,7 @@
       <c r="B7" s="40">
         <v>0</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="64">
         <v>0</v>
       </c>
       <c r="D7" s="18">
@@ -1627,8 +1671,8 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="76" t="s">
+      <c r="G7" s="72"/>
+      <c r="H7" s="61" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="29">
@@ -1661,14 +1705,14 @@
       <c r="R7" s="4">
         <v>0</v>
       </c>
-      <c r="T7" s="65" t="s">
+      <c r="T7" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="67" t="s">
+      <c r="U7" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
@@ -1685,7 +1729,7 @@
       <c r="B8" s="41">
         <v>0</v>
       </c>
-      <c r="C8" s="80">
+      <c r="C8" s="65">
         <v>0</v>
       </c>
       <c r="D8" s="5">
@@ -1697,23 +1741,23 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="69"/>
+      <c r="G8" s="72"/>
       <c r="H8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="47">
         <v>0</v>
       </c>
       <c r="J8" s="13">
         <v>0</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="54">
         <v>0</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="59">
+      <c r="M8" s="50">
         <v>0</v>
       </c>
       <c r="N8" s="15" t="s">
@@ -1731,10 +1775,10 @@
       <c r="R8" s="32">
         <v>0</v>
       </c>
-      <c r="T8" s="65"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
       <c r="AA8"/>
       <c r="AB8"/>
       <c r="AC8"/>
@@ -1742,26 +1786,26 @@
       <c r="AE8"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="74">
-        <v>0</v>
-      </c>
-      <c r="B9" s="75">
-        <v>0</v>
-      </c>
-      <c r="C9" s="81">
-        <v>0</v>
-      </c>
-      <c r="D9" s="77">
-        <v>1</v>
-      </c>
-      <c r="E9" s="77">
-        <v>1</v>
-      </c>
-      <c r="F9" s="76">
-        <v>1</v>
-      </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="76" t="s">
+      <c r="A9" s="59">
+        <v>0</v>
+      </c>
+      <c r="B9" s="60">
+        <v>0</v>
+      </c>
+      <c r="C9" s="66">
+        <v>0</v>
+      </c>
+      <c r="D9" s="62">
+        <v>1</v>
+      </c>
+      <c r="E9" s="62">
+        <v>1</v>
+      </c>
+      <c r="F9" s="61">
+        <v>1</v>
+      </c>
+      <c r="G9" s="72"/>
+      <c r="H9" s="61" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="29">
@@ -1794,14 +1838,14 @@
       <c r="R9" s="4">
         <v>0</v>
       </c>
-      <c r="T9" s="65" t="s">
+      <c r="T9" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
+      <c r="U9" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
       <c r="AA9"/>
       <c r="AB9"/>
       <c r="AC9"/>
@@ -1812,10 +1856,10 @@
       <c r="A10" s="12">
         <v>0</v>
       </c>
-      <c r="B10" s="46">
-        <v>0</v>
-      </c>
-      <c r="C10" s="82">
+      <c r="B10" s="45">
+        <v>0</v>
+      </c>
+      <c r="C10" s="67">
         <v>1</v>
       </c>
       <c r="D10" s="14">
@@ -1827,23 +1871,23 @@
       <c r="F10" s="13">
         <v>0</v>
       </c>
-      <c r="G10" s="69"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="47">
         <v>0</v>
       </c>
       <c r="J10" s="13">
         <v>0</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="54">
         <v>0</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M10" s="50">
         <v>0</v>
       </c>
       <c r="N10" s="15" t="s">
@@ -1861,10 +1905,10 @@
       <c r="R10" s="32">
         <v>0</v>
       </c>
-      <c r="T10" s="65"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
       <c r="AA10"/>
       <c r="AB10"/>
       <c r="AC10"/>
@@ -1878,7 +1922,7 @@
       <c r="B11" s="42">
         <v>0</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="64">
         <v>1</v>
       </c>
       <c r="D11" s="18">
@@ -1890,8 +1934,8 @@
       <c r="F11" s="17">
         <v>1</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="76" t="s">
+      <c r="G11" s="72"/>
+      <c r="H11" s="61" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="29">
@@ -1937,7 +1981,7 @@
       <c r="B12" s="43">
         <v>0</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="65">
         <v>1</v>
       </c>
       <c r="D12" s="5">
@@ -1949,23 +1993,23 @@
       <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="G12" s="69"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="47">
         <v>0</v>
       </c>
       <c r="J12" s="13">
         <v>0</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="54">
         <v>0</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="59">
+      <c r="M12" s="50">
         <v>0</v>
       </c>
       <c r="N12" s="15" t="s">
@@ -2000,7 +2044,7 @@
       <c r="B13" s="42">
         <v>0</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="64">
         <v>1</v>
       </c>
       <c r="D13" s="18">
@@ -2012,8 +2056,8 @@
       <c r="F13" s="17">
         <v>1</v>
       </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="76" t="s">
+      <c r="G13" s="72"/>
+      <c r="H13" s="61" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="29">
@@ -2063,7 +2107,7 @@
       <c r="B14" s="43">
         <v>0</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="65">
         <v>1</v>
       </c>
       <c r="D14" s="5">
@@ -2075,23 +2119,23 @@
       <c r="F14" s="6">
         <v>0</v>
       </c>
-      <c r="G14" s="69"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="47">
         <v>0</v>
       </c>
       <c r="J14" s="13">
         <v>0</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="54">
         <v>0</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="59">
+      <c r="M14" s="50">
         <v>0</v>
       </c>
       <c r="N14" s="15" t="s">
@@ -2126,7 +2170,7 @@
       <c r="B15" s="42">
         <v>0</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="64">
         <v>1</v>
       </c>
       <c r="D15" s="18">
@@ -2138,8 +2182,8 @@
       <c r="F15" s="17">
         <v>1</v>
       </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="76" t="s">
+      <c r="G15" s="72"/>
+      <c r="H15" s="61" t="s">
         <v>0</v>
       </c>
       <c r="I15" s="29">
@@ -2189,7 +2233,7 @@
       <c r="B16" s="43">
         <v>0</v>
       </c>
-      <c r="C16" s="80">
+      <c r="C16" s="65">
         <v>1</v>
       </c>
       <c r="D16" s="5">
@@ -2201,23 +2245,23 @@
       <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="69"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="47">
         <v>0</v>
       </c>
       <c r="J16" s="13">
         <v>0</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="54">
         <v>0</v>
       </c>
       <c r="L16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="59">
+      <c r="M16" s="50">
         <v>0</v>
       </c>
       <c r="N16" s="15" t="s">
@@ -2252,7 +2296,7 @@
       <c r="B17" s="44">
         <v>0</v>
       </c>
-      <c r="C17" s="83">
+      <c r="C17" s="68">
         <v>1</v>
       </c>
       <c r="D17" s="22">
@@ -2264,7 +2308,7 @@
       <c r="F17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="70"/>
+      <c r="G17" s="73"/>
       <c r="H17" s="17" t="s">
         <v>0</v>
       </c>
@@ -2286,7 +2330,7 @@
       <c r="N17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="56">
+      <c r="O17" s="48">
         <v>0</v>
       </c>
       <c r="P17" s="23">
@@ -2315,7 +2359,7 @@
       <c r="B18" s="25">
         <v>1</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="63">
         <v>0</v>
       </c>
       <c r="D18" s="26">
@@ -2327,7 +2371,7 @@
       <c r="F18" s="25">
         <v>0</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="71" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="25" t="s">
@@ -2339,13 +2383,13 @@
       <c r="J18" s="25">
         <v>1</v>
       </c>
-      <c r="K18" s="64">
+      <c r="K18" s="55">
         <v>0</v>
       </c>
       <c r="L18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="58" t="s">
+      <c r="M18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="N18" s="27">
@@ -2363,14 +2407,14 @@
       <c r="R18" s="32">
         <v>0</v>
       </c>
-      <c r="T18" s="68" t="s">
+      <c r="T18" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="U18" s="67" t="s">
+      <c r="U18" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18"/>
@@ -2387,7 +2431,7 @@
       <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="64">
         <v>0</v>
       </c>
       <c r="D19" s="18">
@@ -2399,7 +2443,7 @@
       <c r="F19" s="17">
         <v>1</v>
       </c>
-      <c r="G19" s="69"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="17" t="s">
         <v>0</v>
       </c>
@@ -2415,7 +2459,7 @@
       <c r="L19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="60" t="s">
+      <c r="M19" s="51" t="s">
         <v>16</v>
       </c>
       <c r="N19" s="4">
@@ -2433,10 +2477,10 @@
       <c r="R19" s="4">
         <v>0</v>
       </c>
-      <c r="T19" s="68"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="74"/>
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19"/>
@@ -2453,7 +2497,7 @@
       <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="80">
+      <c r="C20" s="65">
         <v>0</v>
       </c>
       <c r="D20" s="5">
@@ -2465,7 +2509,7 @@
       <c r="F20" s="6">
         <v>0</v>
       </c>
-      <c r="G20" s="69"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="6" t="s">
         <v>0</v>
       </c>
@@ -2475,13 +2519,13 @@
       <c r="J20" s="6">
         <v>1</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="54">
         <v>0</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M20" s="59" t="s">
+      <c r="M20" s="50" t="s">
         <v>16</v>
       </c>
       <c r="N20" s="15">
@@ -2499,14 +2543,14 @@
       <c r="R20" s="32">
         <v>0</v>
       </c>
-      <c r="T20" s="68" t="s">
+      <c r="T20" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="U20" s="66" t="s">
+      <c r="U20" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20"/>
@@ -2523,7 +2567,7 @@
       <c r="B21" s="17">
         <v>1</v>
       </c>
-      <c r="C21" s="79">
+      <c r="C21" s="64">
         <v>0</v>
       </c>
       <c r="D21" s="18">
@@ -2535,7 +2579,7 @@
       <c r="F21" s="17">
         <v>1</v>
       </c>
-      <c r="G21" s="69"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="17" t="s">
         <v>0</v>
       </c>
@@ -2551,7 +2595,7 @@
       <c r="L21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="60" t="s">
+      <c r="M21" s="51" t="s">
         <v>16</v>
       </c>
       <c r="N21" s="4">
@@ -2569,10 +2613,10 @@
       <c r="R21" s="4">
         <v>0</v>
       </c>
-      <c r="T21" s="68"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
       <c r="X21"/>
       <c r="Y21"/>
       <c r="Z21"/>
@@ -2589,7 +2633,7 @@
       <c r="B22" s="6">
         <v>1</v>
       </c>
-      <c r="C22" s="80">
+      <c r="C22" s="65">
         <v>0</v>
       </c>
       <c r="D22" s="5">
@@ -2601,7 +2645,7 @@
       <c r="F22" s="6">
         <v>0</v>
       </c>
-      <c r="G22" s="69"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="6" t="s">
         <v>0</v>
       </c>
@@ -2611,13 +2655,13 @@
       <c r="J22" s="6">
         <v>1</v>
       </c>
-      <c r="K22" s="63">
+      <c r="K22" s="54">
         <v>0</v>
       </c>
       <c r="L22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="59" t="s">
+      <c r="M22" s="50" t="s">
         <v>16</v>
       </c>
       <c r="N22" s="15">
@@ -2651,7 +2695,7 @@
       <c r="B23" s="17">
         <v>1</v>
       </c>
-      <c r="C23" s="79">
+      <c r="C23" s="64">
         <v>0</v>
       </c>
       <c r="D23" s="18">
@@ -2663,7 +2707,7 @@
       <c r="F23" s="17">
         <v>1</v>
       </c>
-      <c r="G23" s="69"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="17" t="s">
         <v>0</v>
       </c>
@@ -2679,7 +2723,7 @@
       <c r="L23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M23" s="60" t="s">
+      <c r="M23" s="51" t="s">
         <v>16</v>
       </c>
       <c r="N23" s="4">
@@ -2714,7 +2758,7 @@
       <c r="B24" s="6">
         <v>1</v>
       </c>
-      <c r="C24" s="80">
+      <c r="C24" s="65">
         <v>0</v>
       </c>
       <c r="D24" s="5">
@@ -2726,7 +2770,7 @@
       <c r="F24" s="6">
         <v>0</v>
       </c>
-      <c r="G24" s="69"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="6" t="s">
         <v>0</v>
       </c>
@@ -2736,13 +2780,13 @@
       <c r="J24" s="6">
         <v>1</v>
       </c>
-      <c r="K24" s="63">
+      <c r="K24" s="54">
         <v>0</v>
       </c>
       <c r="L24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="59" t="s">
+      <c r="M24" s="50" t="s">
         <v>16</v>
       </c>
       <c r="N24" s="15">
@@ -2760,14 +2804,14 @@
       <c r="R24" s="32">
         <v>0</v>
       </c>
-      <c r="T24" s="71" t="s">
+      <c r="T24" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="U24" s="67" t="s">
+      <c r="U24" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
       <c r="X24"/>
       <c r="Y24"/>
       <c r="Z24"/>
@@ -2778,32 +2822,32 @@
       <c r="AE24"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="74">
-        <v>0</v>
-      </c>
-      <c r="B25" s="76">
-        <v>1</v>
-      </c>
-      <c r="C25" s="81">
-        <v>0</v>
-      </c>
-      <c r="D25" s="77">
-        <v>1</v>
-      </c>
-      <c r="E25" s="77">
-        <v>1</v>
-      </c>
-      <c r="F25" s="76">
-        <v>1</v>
-      </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="77">
-        <v>0</v>
-      </c>
-      <c r="J25" s="76">
+      <c r="A25" s="59">
+        <v>0</v>
+      </c>
+      <c r="B25" s="61">
+        <v>1</v>
+      </c>
+      <c r="C25" s="66">
+        <v>0</v>
+      </c>
+      <c r="D25" s="62">
+        <v>1</v>
+      </c>
+      <c r="E25" s="62">
+        <v>1</v>
+      </c>
+      <c r="F25" s="61">
+        <v>1</v>
+      </c>
+      <c r="G25" s="72"/>
+      <c r="H25" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="62">
+        <v>0</v>
+      </c>
+      <c r="J25" s="61">
         <v>1</v>
       </c>
       <c r="K25" s="37">
@@ -2812,13 +2856,13 @@
       <c r="L25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M25" s="60" t="s">
+      <c r="M25" s="51" t="s">
         <v>16</v>
       </c>
       <c r="N25" s="4">
         <v>0</v>
       </c>
-      <c r="O25" s="84">
+      <c r="O25" s="69">
         <v>1</v>
       </c>
       <c r="P25" s="29">
@@ -2830,10 +2874,10 @@
       <c r="R25" s="4">
         <v>0</v>
       </c>
-      <c r="T25" s="71"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
       <c r="X25"/>
       <c r="Y25"/>
       <c r="Z25"/>
@@ -2850,7 +2894,7 @@
       <c r="B26" s="12">
         <v>1</v>
       </c>
-      <c r="C26" s="82">
+      <c r="C26" s="67">
         <v>1</v>
       </c>
       <c r="D26" s="14">
@@ -2862,7 +2906,7 @@
       <c r="F26" s="13">
         <v>0</v>
       </c>
-      <c r="G26" s="69"/>
+      <c r="G26" s="72"/>
       <c r="H26" s="13" t="s">
         <v>0</v>
       </c>
@@ -2872,13 +2916,13 @@
       <c r="J26" s="13">
         <v>1</v>
       </c>
-      <c r="K26" s="63">
+      <c r="K26" s="54">
         <v>0</v>
       </c>
       <c r="L26" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="59" t="s">
+      <c r="M26" s="50" t="s">
         <v>16</v>
       </c>
       <c r="N26" s="15">
@@ -2896,14 +2940,14 @@
       <c r="R26" s="32">
         <v>0</v>
       </c>
-      <c r="T26" s="71" t="s">
+      <c r="T26" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="U26" s="66" t="s">
+      <c r="U26" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
       <c r="X26"/>
       <c r="Y26"/>
       <c r="Z26"/>
@@ -2920,7 +2964,7 @@
       <c r="B27" s="16">
         <v>1</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="64">
         <v>1</v>
       </c>
       <c r="D27" s="18">
@@ -2932,7 +2976,7 @@
       <c r="F27" s="17">
         <v>1</v>
       </c>
-      <c r="G27" s="69"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="17" t="s">
         <v>0</v>
       </c>
@@ -2966,10 +3010,10 @@
       <c r="R27" s="4">
         <v>0</v>
       </c>
-      <c r="T27" s="71"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
       <c r="X27"/>
       <c r="Y27"/>
       <c r="Z27"/>
@@ -2986,7 +3030,7 @@
       <c r="B28" s="19">
         <v>1</v>
       </c>
-      <c r="C28" s="80">
+      <c r="C28" s="65">
         <v>1</v>
       </c>
       <c r="D28" s="5">
@@ -2998,7 +3042,7 @@
       <c r="F28" s="6">
         <v>0</v>
       </c>
-      <c r="G28" s="69"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
@@ -3008,13 +3052,13 @@
       <c r="J28" s="6">
         <v>0</v>
       </c>
-      <c r="K28" s="59">
+      <c r="K28" s="50">
         <v>1</v>
       </c>
       <c r="L28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M28" s="59" t="s">
+      <c r="M28" s="50" t="s">
         <v>16</v>
       </c>
       <c r="N28" s="15">
@@ -3049,7 +3093,7 @@
       <c r="B29" s="16">
         <v>1</v>
       </c>
-      <c r="C29" s="79">
+      <c r="C29" s="64">
         <v>1</v>
       </c>
       <c r="D29" s="18">
@@ -3061,7 +3105,7 @@
       <c r="F29" s="17">
         <v>1</v>
       </c>
-      <c r="G29" s="69"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="17" t="s">
         <v>10</v>
       </c>
@@ -3112,7 +3156,7 @@
       <c r="B30" s="19">
         <v>1</v>
       </c>
-      <c r="C30" s="80">
+      <c r="C30" s="65">
         <v>1</v>
       </c>
       <c r="D30" s="5">
@@ -3124,7 +3168,7 @@
       <c r="F30" s="6">
         <v>0</v>
       </c>
-      <c r="G30" s="69"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="6" t="s">
         <v>0</v>
       </c>
@@ -3134,13 +3178,13 @@
       <c r="J30" s="6">
         <v>1</v>
       </c>
-      <c r="K30" s="59">
+      <c r="K30" s="50">
         <v>0</v>
       </c>
       <c r="L30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M30" s="59" t="s">
+      <c r="M30" s="50" t="s">
         <v>16</v>
       </c>
       <c r="N30" s="15">
@@ -3175,7 +3219,7 @@
       <c r="B31" s="16">
         <v>1</v>
       </c>
-      <c r="C31" s="79">
+      <c r="C31" s="64">
         <v>1</v>
       </c>
       <c r="D31" s="18">
@@ -3187,7 +3231,7 @@
       <c r="F31" s="17">
         <v>1</v>
       </c>
-      <c r="G31" s="69"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="17" t="s">
         <v>0</v>
       </c>
@@ -3237,7 +3281,7 @@
       <c r="B32" s="19">
         <v>1</v>
       </c>
-      <c r="C32" s="80">
+      <c r="C32" s="65">
         <v>1</v>
       </c>
       <c r="D32" s="5">
@@ -3249,7 +3293,7 @@
       <c r="F32" s="6">
         <v>0</v>
       </c>
-      <c r="G32" s="69"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="6" t="s">
         <v>10</v>
       </c>
@@ -3259,13 +3303,13 @@
       <c r="J32" s="6">
         <v>0</v>
       </c>
-      <c r="K32" s="59">
+      <c r="K32" s="50">
         <v>1</v>
       </c>
       <c r="L32" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M32" s="59" t="s">
+      <c r="M32" s="50" t="s">
         <v>16</v>
       </c>
       <c r="N32" s="15">
@@ -3299,7 +3343,7 @@
       <c r="B33" s="20">
         <v>1</v>
       </c>
-      <c r="C33" s="83">
+      <c r="C33" s="68">
         <v>1</v>
       </c>
       <c r="D33" s="22">
@@ -3311,7 +3355,7 @@
       <c r="F33" s="21">
         <v>1</v>
       </c>
-      <c r="G33" s="70"/>
+      <c r="G33" s="73"/>
       <c r="H33" s="21" t="s">
         <v>10</v>
       </c>
@@ -3355,13 +3399,13 @@
       <c r="AE33"/>
     </row>
     <row r="34" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="24">
         <v>1</v>
       </c>
       <c r="B34" s="24">
         <v>0</v>
       </c>
-      <c r="C34" s="78">
+      <c r="C34" s="63">
         <v>0</v>
       </c>
       <c r="D34" s="26">
@@ -3373,7 +3417,7 @@
       <c r="F34" s="25">
         <v>0</v>
       </c>
-      <c r="G34" s="72" t="s">
+      <c r="G34" s="71" t="s">
         <v>10</v>
       </c>
       <c r="H34" s="25" t="s">
@@ -3385,25 +3429,25 @@
       <c r="J34" s="25">
         <v>1</v>
       </c>
-      <c r="K34" s="58" t="s">
+      <c r="K34" s="49" t="s">
         <v>16</v>
       </c>
       <c r="L34" s="27">
         <v>0</v>
       </c>
-      <c r="M34" s="58">
+      <c r="M34" s="49">
         <v>1</v>
       </c>
       <c r="N34" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="O34" s="2">
-        <v>1</v>
-      </c>
-      <c r="P34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="2">
+      <c r="O34" s="70">
+        <v>1</v>
+      </c>
+      <c r="P34" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="70">
         <v>0</v>
       </c>
       <c r="R34" s="32">
@@ -3424,13 +3468,13 @@
       <c r="AE34"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="A35" s="16">
         <v>1</v>
       </c>
       <c r="B35" s="16">
         <v>0</v>
       </c>
-      <c r="C35" s="79">
+      <c r="C35" s="64">
         <v>0</v>
       </c>
       <c r="D35" s="18">
@@ -3442,7 +3486,7 @@
       <c r="F35" s="17">
         <v>1</v>
       </c>
-      <c r="G35" s="69"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="17" t="s">
         <v>11</v>
       </c>
@@ -3458,19 +3502,19 @@
       <c r="L35" s="4">
         <v>0</v>
       </c>
-      <c r="M35" s="60">
+      <c r="M35" s="51">
         <v>1</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O35" s="1">
-        <v>1</v>
-      </c>
-      <c r="P35" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="29">
+      <c r="O35" s="80">
+        <v>1</v>
+      </c>
+      <c r="P35" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="80">
         <v>0</v>
       </c>
       <c r="R35" s="4">
@@ -3491,13 +3535,13 @@
       <c r="AE35"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="19">
         <v>1</v>
       </c>
       <c r="B36" s="19">
         <v>0</v>
       </c>
-      <c r="C36" s="80">
+      <c r="C36" s="65">
         <v>0</v>
       </c>
       <c r="D36" s="5">
@@ -3509,7 +3553,7 @@
       <c r="F36" s="6">
         <v>0</v>
       </c>
-      <c r="G36" s="69"/>
+      <c r="G36" s="72"/>
       <c r="H36" s="6" t="s">
         <v>11</v>
       </c>
@@ -3519,25 +3563,25 @@
       <c r="J36" s="6">
         <v>1</v>
       </c>
-      <c r="K36" s="59" t="s">
+      <c r="K36" s="50" t="s">
         <v>16</v>
       </c>
       <c r="L36" s="15">
         <v>0</v>
       </c>
-      <c r="M36" s="59">
+      <c r="M36" s="50">
         <v>1</v>
       </c>
       <c r="N36" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O36" s="2">
-        <v>1</v>
-      </c>
-      <c r="P36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="2">
+      <c r="O36" s="70">
+        <v>1</v>
+      </c>
+      <c r="P36" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="70">
         <v>0</v>
       </c>
       <c r="R36" s="32">
@@ -3558,13 +3602,13 @@
       <c r="AE36"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+      <c r="A37" s="16">
         <v>1</v>
       </c>
       <c r="B37" s="16">
         <v>0</v>
       </c>
-      <c r="C37" s="79">
+      <c r="C37" s="64">
         <v>0</v>
       </c>
       <c r="D37" s="18">
@@ -3576,7 +3620,7 @@
       <c r="F37" s="17">
         <v>1</v>
       </c>
-      <c r="G37" s="69"/>
+      <c r="G37" s="72"/>
       <c r="H37" s="17" t="s">
         <v>11</v>
       </c>
@@ -3592,19 +3636,19 @@
       <c r="L37" s="4">
         <v>0</v>
       </c>
-      <c r="M37" s="60">
+      <c r="M37" s="51">
         <v>1</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O37" s="1">
-        <v>1</v>
-      </c>
-      <c r="P37" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="29">
+      <c r="O37" s="80">
+        <v>1</v>
+      </c>
+      <c r="P37" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="80">
         <v>0</v>
       </c>
       <c r="R37" s="4">
@@ -3625,13 +3669,13 @@
       <c r="AE37"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="19">
         <v>1</v>
       </c>
       <c r="B38" s="19">
         <v>0</v>
       </c>
-      <c r="C38" s="80">
+      <c r="C38" s="65">
         <v>0</v>
       </c>
       <c r="D38" s="5">
@@ -3643,7 +3687,7 @@
       <c r="F38" s="6">
         <v>0</v>
       </c>
-      <c r="G38" s="69"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="6" t="s">
         <v>11</v>
       </c>
@@ -3653,25 +3697,25 @@
       <c r="J38" s="6">
         <v>1</v>
       </c>
-      <c r="K38" s="59" t="s">
+      <c r="K38" s="50" t="s">
         <v>16</v>
       </c>
       <c r="L38" s="15">
         <v>0</v>
       </c>
-      <c r="M38" s="59">
+      <c r="M38" s="50">
         <v>1</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O38" s="2">
-        <v>1</v>
-      </c>
-      <c r="P38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="2">
+      <c r="O38" s="70">
+        <v>1</v>
+      </c>
+      <c r="P38" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="70">
         <v>0</v>
       </c>
       <c r="R38" s="32">
@@ -3692,13 +3736,13 @@
       <c r="AE38"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
+      <c r="A39" s="16">
         <v>1</v>
       </c>
       <c r="B39" s="16">
         <v>0</v>
       </c>
-      <c r="C39" s="79">
+      <c r="C39" s="64">
         <v>0</v>
       </c>
       <c r="D39" s="18">
@@ -3710,7 +3754,7 @@
       <c r="F39" s="17">
         <v>1</v>
       </c>
-      <c r="G39" s="69"/>
+      <c r="G39" s="72"/>
       <c r="H39" s="17" t="s">
         <v>11</v>
       </c>
@@ -3726,19 +3770,19 @@
       <c r="L39" s="4">
         <v>0</v>
       </c>
-      <c r="M39" s="60">
+      <c r="M39" s="51">
         <v>1</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O39" s="1">
-        <v>1</v>
-      </c>
-      <c r="P39" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="29">
+      <c r="O39" s="80">
+        <v>1</v>
+      </c>
+      <c r="P39" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="80">
         <v>0</v>
       </c>
       <c r="R39" s="4">
@@ -3759,13 +3803,13 @@
       <c r="AE39"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="19">
         <v>1</v>
       </c>
       <c r="B40" s="19">
         <v>0</v>
       </c>
-      <c r="C40" s="80">
+      <c r="C40" s="65">
         <v>0</v>
       </c>
       <c r="D40" s="5">
@@ -3777,35 +3821,35 @@
       <c r="F40" s="6">
         <v>0</v>
       </c>
-      <c r="G40" s="69"/>
-      <c r="H40" s="90" t="s">
+      <c r="G40" s="72"/>
+      <c r="H40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="86">
-        <v>1</v>
-      </c>
-      <c r="J40" s="90">
-        <v>1</v>
-      </c>
-      <c r="K40" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="L40" s="95">
-        <v>0</v>
-      </c>
-      <c r="M40" s="94">
-        <v>1</v>
-      </c>
-      <c r="N40" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="O40" s="2">
-        <v>1</v>
-      </c>
-      <c r="P40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2">
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+      <c r="J40" s="6">
+        <v>1</v>
+      </c>
+      <c r="K40" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="15">
+        <v>0</v>
+      </c>
+      <c r="M40" s="50">
+        <v>1</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="70">
+        <v>1</v>
+      </c>
+      <c r="P40" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="70">
         <v>0</v>
       </c>
       <c r="R40" s="32">
@@ -3826,53 +3870,53 @@
       <c r="AE40"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="76">
-        <v>1</v>
-      </c>
-      <c r="B41" s="74">
-        <v>0</v>
-      </c>
-      <c r="C41" s="81">
-        <v>0</v>
-      </c>
-      <c r="D41" s="77">
-        <v>1</v>
-      </c>
-      <c r="E41" s="77">
-        <v>1</v>
-      </c>
-      <c r="F41" s="76">
-        <v>1</v>
-      </c>
-      <c r="G41" s="69"/>
-      <c r="H41" s="91" t="s">
+      <c r="A41" s="59">
+        <v>1</v>
+      </c>
+      <c r="B41" s="59">
+        <v>0</v>
+      </c>
+      <c r="C41" s="66">
+        <v>0</v>
+      </c>
+      <c r="D41" s="62">
+        <v>1</v>
+      </c>
+      <c r="E41" s="62">
+        <v>1</v>
+      </c>
+      <c r="F41" s="61">
+        <v>1</v>
+      </c>
+      <c r="G41" s="72"/>
+      <c r="H41" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="87">
-        <v>1</v>
-      </c>
-      <c r="J41" s="91">
-        <v>1</v>
-      </c>
-      <c r="K41" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" s="97">
-        <v>0</v>
-      </c>
-      <c r="M41" s="104">
-        <v>1</v>
-      </c>
-      <c r="N41" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="O41" s="29">
-        <v>1</v>
-      </c>
-      <c r="P41" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="29">
+      <c r="I41" s="62">
+        <v>1</v>
+      </c>
+      <c r="J41" s="61">
+        <v>1</v>
+      </c>
+      <c r="K41" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="51">
+        <v>1</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="80">
+        <v>1</v>
+      </c>
+      <c r="P41" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="80">
         <v>0</v>
       </c>
       <c r="R41" s="4">
@@ -3899,7 +3943,7 @@
       <c r="B42" s="12">
         <v>0</v>
       </c>
-      <c r="C42" s="82">
+      <c r="C42" s="67">
         <v>1</v>
       </c>
       <c r="D42" s="14">
@@ -3911,7 +3955,7 @@
       <c r="F42" s="13">
         <v>0</v>
       </c>
-      <c r="G42" s="69"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="13" t="s">
         <v>11</v>
       </c>
@@ -3921,28 +3965,28 @@
       <c r="J42" s="13">
         <v>1</v>
       </c>
-      <c r="K42" s="59" t="s">
+      <c r="K42" s="50" t="s">
         <v>16</v>
       </c>
       <c r="L42" s="15">
         <v>0</v>
       </c>
-      <c r="M42" s="59">
+      <c r="M42" s="50">
         <v>1</v>
       </c>
       <c r="N42" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O42" s="54">
-        <v>1</v>
-      </c>
-      <c r="P42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0</v>
-      </c>
-      <c r="R42" s="55">
+      <c r="O42" s="57">
+        <v>1</v>
+      </c>
+      <c r="P42" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="70">
+        <v>0</v>
+      </c>
+      <c r="R42" s="32">
         <v>1</v>
       </c>
     </row>
@@ -3953,7 +3997,7 @@
       <c r="B43" s="16">
         <v>0</v>
       </c>
-      <c r="C43" s="79">
+      <c r="C43" s="64">
         <v>1</v>
       </c>
       <c r="D43" s="18">
@@ -3965,7 +4009,7 @@
       <c r="F43" s="17">
         <v>1</v>
       </c>
-      <c r="G43" s="69"/>
+      <c r="G43" s="72"/>
       <c r="H43" s="17" t="s">
         <v>11</v>
       </c>
@@ -3981,22 +4025,22 @@
       <c r="L43" s="4">
         <v>0</v>
       </c>
-      <c r="M43" s="60">
+      <c r="M43" s="51">
         <v>1</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O43" s="52">
-        <v>1</v>
-      </c>
-      <c r="P43" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="29">
-        <v>0</v>
-      </c>
-      <c r="R43" s="53">
+      <c r="O43" s="37">
+        <v>1</v>
+      </c>
+      <c r="P43" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="80">
+        <v>0</v>
+      </c>
+      <c r="R43" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4007,50 +4051,50 @@
       <c r="B44" s="19">
         <v>0</v>
       </c>
-      <c r="C44" s="101">
-        <v>1</v>
-      </c>
-      <c r="D44" s="86">
-        <v>0</v>
-      </c>
-      <c r="E44" s="86">
+      <c r="C44" s="65">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
         <v>1</v>
       </c>
       <c r="F44" s="6">
         <v>0</v>
       </c>
-      <c r="G44" s="69"/>
-      <c r="H44" s="90" t="s">
+      <c r="G44" s="72"/>
+      <c r="H44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="86">
-        <v>1</v>
-      </c>
-      <c r="J44" s="90">
-        <v>0</v>
-      </c>
-      <c r="K44" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="L44" s="95">
-        <v>0</v>
-      </c>
-      <c r="M44" s="94">
-        <v>0</v>
-      </c>
-      <c r="N44" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="O44" s="54">
-        <v>1</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0</v>
-      </c>
-      <c r="R44" s="55">
+      <c r="I44" s="5">
+        <v>1</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="15">
+        <v>0</v>
+      </c>
+      <c r="M44" s="50">
+        <v>0</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="57">
+        <v>1</v>
+      </c>
+      <c r="P44" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="70">
+        <v>0</v>
+      </c>
+      <c r="R44" s="32">
         <v>1</v>
       </c>
     </row>
@@ -4061,50 +4105,50 @@
       <c r="B45" s="16">
         <v>0</v>
       </c>
-      <c r="C45" s="103">
-        <v>1</v>
-      </c>
-      <c r="D45" s="85">
-        <v>0</v>
-      </c>
-      <c r="E45" s="85">
+      <c r="C45" s="64">
+        <v>1</v>
+      </c>
+      <c r="D45" s="18">
+        <v>0</v>
+      </c>
+      <c r="E45" s="18">
         <v>1</v>
       </c>
       <c r="F45" s="17">
         <v>1</v>
       </c>
-      <c r="G45" s="69"/>
-      <c r="H45" s="89" t="s">
+      <c r="G45" s="72"/>
+      <c r="H45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="85">
-        <v>1</v>
-      </c>
-      <c r="J45" s="89">
-        <v>0</v>
-      </c>
-      <c r="K45" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="97">
-        <v>0</v>
-      </c>
-      <c r="M45" s="104">
-        <v>0</v>
-      </c>
-      <c r="N45" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="O45" s="52">
-        <v>1</v>
-      </c>
-      <c r="P45" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="29">
-        <v>0</v>
-      </c>
-      <c r="R45" s="53">
+      <c r="I45" s="18">
+        <v>1</v>
+      </c>
+      <c r="J45" s="17">
+        <v>0</v>
+      </c>
+      <c r="K45" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="51">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="37">
+        <v>1</v>
+      </c>
+      <c r="P45" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="80">
+        <v>0</v>
+      </c>
+      <c r="R45" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4115,7 +4159,7 @@
       <c r="B46" s="19">
         <v>0</v>
       </c>
-      <c r="C46" s="80">
+      <c r="C46" s="65">
         <v>1</v>
       </c>
       <c r="D46" s="5">
@@ -4127,7 +4171,7 @@
       <c r="F46" s="6">
         <v>0</v>
       </c>
-      <c r="G46" s="69"/>
+      <c r="G46" s="72"/>
       <c r="H46" s="6" t="s">
         <v>11</v>
       </c>
@@ -4137,28 +4181,28 @@
       <c r="J46" s="6">
         <v>1</v>
       </c>
-      <c r="K46" s="59" t="s">
+      <c r="K46" s="50" t="s">
         <v>16</v>
       </c>
       <c r="L46" s="15">
         <v>0</v>
       </c>
-      <c r="M46" s="59">
+      <c r="M46" s="50">
         <v>1</v>
       </c>
       <c r="N46" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O46" s="54">
-        <v>1</v>
-      </c>
-      <c r="P46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0</v>
-      </c>
-      <c r="R46" s="55">
+      <c r="O46" s="57">
+        <v>1</v>
+      </c>
+      <c r="P46" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="70">
+        <v>0</v>
+      </c>
+      <c r="R46" s="32">
         <v>1</v>
       </c>
     </row>
@@ -4169,7 +4213,7 @@
       <c r="B47" s="16">
         <v>0</v>
       </c>
-      <c r="C47" s="79">
+      <c r="C47" s="64">
         <v>1</v>
       </c>
       <c r="D47" s="18">
@@ -4181,7 +4225,7 @@
       <c r="F47" s="17">
         <v>1</v>
       </c>
-      <c r="G47" s="69"/>
+      <c r="G47" s="72"/>
       <c r="H47" s="17" t="s">
         <v>11</v>
       </c>
@@ -4197,22 +4241,22 @@
       <c r="L47" s="4">
         <v>0</v>
       </c>
-      <c r="M47" s="60">
+      <c r="M47" s="51">
         <v>1</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O47" s="52">
-        <v>1</v>
-      </c>
-      <c r="P47" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="29">
-        <v>0</v>
-      </c>
-      <c r="R47" s="53">
+      <c r="O47" s="37">
+        <v>1</v>
+      </c>
+      <c r="P47" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="80">
+        <v>0</v>
+      </c>
+      <c r="R47" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4223,47 +4267,47 @@
       <c r="B48" s="19">
         <v>0</v>
       </c>
-      <c r="C48" s="101">
-        <v>1</v>
-      </c>
-      <c r="D48" s="86">
-        <v>1</v>
-      </c>
-      <c r="E48" s="86">
+      <c r="C48" s="65">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
         <v>1</v>
       </c>
       <c r="F48" s="6">
         <v>0</v>
       </c>
-      <c r="G48" s="69"/>
-      <c r="H48" s="90" t="s">
+      <c r="G48" s="72"/>
+      <c r="H48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I48" s="86">
-        <v>1</v>
-      </c>
-      <c r="J48" s="90">
-        <v>0</v>
-      </c>
-      <c r="K48" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="L48" s="95">
-        <v>0</v>
-      </c>
-      <c r="M48" s="94">
-        <v>0</v>
-      </c>
-      <c r="N48" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="O48" s="63">
-        <v>1</v>
-      </c>
-      <c r="P48" s="105">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="105">
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="15">
+        <v>0</v>
+      </c>
+      <c r="M48" s="50">
+        <v>0</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="57">
+        <v>1</v>
+      </c>
+      <c r="P48" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="70">
         <v>0</v>
       </c>
       <c r="R48" s="32">
@@ -4277,38 +4321,38 @@
       <c r="B49" s="20">
         <v>0</v>
       </c>
-      <c r="C49" s="102">
-        <v>1</v>
-      </c>
-      <c r="D49" s="88">
-        <v>1</v>
-      </c>
-      <c r="E49" s="88">
+      <c r="C49" s="68">
+        <v>1</v>
+      </c>
+      <c r="D49" s="22">
+        <v>1</v>
+      </c>
+      <c r="E49" s="22">
         <v>1</v>
       </c>
       <c r="F49" s="21">
         <v>1</v>
       </c>
-      <c r="G49" s="70"/>
-      <c r="H49" s="92" t="s">
+      <c r="G49" s="73"/>
+      <c r="H49" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="88">
-        <v>1</v>
-      </c>
-      <c r="J49" s="92">
-        <v>0</v>
-      </c>
-      <c r="K49" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="L49" s="97">
-        <v>0</v>
-      </c>
-      <c r="M49" s="96">
-        <v>0</v>
-      </c>
-      <c r="N49" s="98" t="s">
+      <c r="I49" s="22">
+        <v>1</v>
+      </c>
+      <c r="J49" s="21">
+        <v>0</v>
+      </c>
+      <c r="K49" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="37">
+        <v>0</v>
+      </c>
+      <c r="N49" s="28" t="s">
         <v>16</v>
       </c>
       <c r="O49" s="38">
@@ -4325,13 +4369,13 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45">
-        <v>1</v>
-      </c>
-      <c r="B50" s="45">
-        <v>1</v>
-      </c>
-      <c r="C50" s="78">
+      <c r="A50" s="24">
+        <v>1</v>
+      </c>
+      <c r="B50" s="25">
+        <v>1</v>
+      </c>
+      <c r="C50" s="63">
         <v>0</v>
       </c>
       <c r="D50" s="26">
@@ -4343,37 +4387,37 @@
       <c r="F50" s="25">
         <v>0</v>
       </c>
-      <c r="G50" s="72" t="s">
+      <c r="G50" s="71" t="s">
         <v>11</v>
       </c>
       <c r="H50" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="50">
+      <c r="I50" s="26">
         <v>1</v>
       </c>
       <c r="J50" s="25">
         <v>1</v>
       </c>
-      <c r="K50" s="58" t="s">
+      <c r="K50" s="49" t="s">
         <v>16</v>
       </c>
       <c r="L50" s="27">
         <v>0</v>
       </c>
-      <c r="M50" s="58" t="s">
+      <c r="M50" s="49" t="s">
         <v>16</v>
       </c>
       <c r="N50" s="27">
         <v>0</v>
       </c>
-      <c r="O50" s="2">
-        <v>1</v>
-      </c>
-      <c r="P50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="2">
+      <c r="O50" s="70">
+        <v>1</v>
+      </c>
+      <c r="P50" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="70">
         <v>0</v>
       </c>
       <c r="R50" s="32">
@@ -4381,13 +4425,13 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="40">
-        <v>1</v>
-      </c>
-      <c r="B51" s="40">
-        <v>1</v>
-      </c>
-      <c r="C51" s="79">
+      <c r="A51" s="16">
+        <v>1</v>
+      </c>
+      <c r="B51" s="17">
+        <v>1</v>
+      </c>
+      <c r="C51" s="64">
         <v>0</v>
       </c>
       <c r="D51" s="18">
@@ -4399,11 +4443,11 @@
       <c r="F51" s="17">
         <v>1</v>
       </c>
-      <c r="G51" s="69"/>
+      <c r="G51" s="72"/>
       <c r="H51" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="51">
+      <c r="I51" s="18">
         <v>1</v>
       </c>
       <c r="J51" s="17">
@@ -4421,13 +4465,13 @@
       <c r="N51" s="4">
         <v>0</v>
       </c>
-      <c r="O51" s="1">
-        <v>1</v>
-      </c>
-      <c r="P51" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="29">
+      <c r="O51" s="80">
+        <v>1</v>
+      </c>
+      <c r="P51" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="80">
         <v>0</v>
       </c>
       <c r="R51" s="4">
@@ -4435,13 +4479,13 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="41">
-        <v>1</v>
-      </c>
-      <c r="B52" s="41">
-        <v>1</v>
-      </c>
-      <c r="C52" s="80">
+      <c r="A52" s="19">
+        <v>1</v>
+      </c>
+      <c r="B52" s="6">
+        <v>1</v>
+      </c>
+      <c r="C52" s="65">
         <v>0</v>
       </c>
       <c r="D52" s="5">
@@ -4453,35 +4497,35 @@
       <c r="F52" s="6">
         <v>0</v>
       </c>
-      <c r="G52" s="69"/>
+      <c r="G52" s="72"/>
       <c r="H52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="49">
+      <c r="I52" s="5">
         <v>1</v>
       </c>
       <c r="J52" s="6">
         <v>1</v>
       </c>
-      <c r="K52" s="59" t="s">
+      <c r="K52" s="50" t="s">
         <v>16</v>
       </c>
       <c r="L52" s="15">
         <v>0</v>
       </c>
-      <c r="M52" s="59" t="s">
+      <c r="M52" s="50" t="s">
         <v>16</v>
       </c>
       <c r="N52" s="15">
         <v>0</v>
       </c>
-      <c r="O52" s="2">
-        <v>1</v>
-      </c>
-      <c r="P52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="2">
+      <c r="O52" s="70">
+        <v>1</v>
+      </c>
+      <c r="P52" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="70">
         <v>0</v>
       </c>
       <c r="R52" s="32">
@@ -4489,13 +4533,13 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="40">
-        <v>1</v>
-      </c>
-      <c r="B53" s="40">
-        <v>1</v>
-      </c>
-      <c r="C53" s="79">
+      <c r="A53" s="16">
+        <v>1</v>
+      </c>
+      <c r="B53" s="17">
+        <v>1</v>
+      </c>
+      <c r="C53" s="64">
         <v>0</v>
       </c>
       <c r="D53" s="18">
@@ -4507,11 +4551,11 @@
       <c r="F53" s="17">
         <v>1</v>
       </c>
-      <c r="G53" s="69"/>
+      <c r="G53" s="72"/>
       <c r="H53" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="51">
+      <c r="I53" s="18">
         <v>1</v>
       </c>
       <c r="J53" s="17">
@@ -4529,13 +4573,13 @@
       <c r="N53" s="4">
         <v>0</v>
       </c>
-      <c r="O53" s="1">
-        <v>1</v>
-      </c>
-      <c r="P53" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="29">
+      <c r="O53" s="80">
+        <v>1</v>
+      </c>
+      <c r="P53" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="80">
         <v>0</v>
       </c>
       <c r="R53" s="4">
@@ -4543,16 +4587,16 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="41">
-        <v>1</v>
-      </c>
-      <c r="B54" s="41">
-        <v>1</v>
-      </c>
-      <c r="C54" s="80">
-        <v>0</v>
-      </c>
-      <c r="D54" s="86">
+      <c r="A54" s="19">
+        <v>1</v>
+      </c>
+      <c r="B54" s="6">
+        <v>1</v>
+      </c>
+      <c r="C54" s="65">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5">
         <v>1</v>
       </c>
       <c r="E54" s="5">
@@ -4561,35 +4605,35 @@
       <c r="F54" s="6">
         <v>0</v>
       </c>
-      <c r="G54" s="69"/>
-      <c r="H54" s="90" t="s">
+      <c r="G54" s="72"/>
+      <c r="H54" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="86">
-        <v>0</v>
-      </c>
-      <c r="J54" s="90">
-        <v>0</v>
-      </c>
-      <c r="K54" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="L54" s="95">
-        <v>1</v>
-      </c>
-      <c r="M54" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="N54" s="95">
-        <v>1</v>
-      </c>
-      <c r="O54" s="2">
-        <v>1</v>
-      </c>
-      <c r="P54" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="2">
+      <c r="I54" s="5">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="15">
+        <v>1</v>
+      </c>
+      <c r="M54" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" s="15">
+        <v>1</v>
+      </c>
+      <c r="O54" s="70">
+        <v>1</v>
+      </c>
+      <c r="P54" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="70">
         <v>0</v>
       </c>
       <c r="R54" s="32">
@@ -4597,16 +4641,16 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="40">
-        <v>1</v>
-      </c>
-      <c r="B55" s="40">
-        <v>1</v>
-      </c>
-      <c r="C55" s="79">
-        <v>0</v>
-      </c>
-      <c r="D55" s="85">
+      <c r="A55" s="16">
+        <v>1</v>
+      </c>
+      <c r="B55" s="17">
+        <v>1</v>
+      </c>
+      <c r="C55" s="64">
+        <v>0</v>
+      </c>
+      <c r="D55" s="18">
         <v>1</v>
       </c>
       <c r="E55" s="18">
@@ -4615,35 +4659,35 @@
       <c r="F55" s="17">
         <v>1</v>
       </c>
-      <c r="G55" s="69"/>
-      <c r="H55" s="89" t="s">
+      <c r="G55" s="72"/>
+      <c r="H55" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="85">
-        <v>0</v>
-      </c>
-      <c r="J55" s="89">
-        <v>0</v>
-      </c>
-      <c r="K55" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="L55" s="97">
-        <v>1</v>
-      </c>
-      <c r="M55" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="N55" s="97">
-        <v>1</v>
-      </c>
-      <c r="O55" s="1">
-        <v>1</v>
-      </c>
-      <c r="P55" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="29">
+      <c r="I55" s="18">
+        <v>0</v>
+      </c>
+      <c r="J55" s="17">
+        <v>0</v>
+      </c>
+      <c r="K55" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="N55" s="4">
+        <v>1</v>
+      </c>
+      <c r="O55" s="80">
+        <v>1</v>
+      </c>
+      <c r="P55" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="80">
         <v>0</v>
       </c>
       <c r="R55" s="4">
@@ -4651,16 +4695,16 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="41">
-        <v>1</v>
-      </c>
-      <c r="B56" s="41">
-        <v>1</v>
-      </c>
-      <c r="C56" s="80">
-        <v>0</v>
-      </c>
-      <c r="D56" s="86">
+      <c r="A56" s="19">
+        <v>1</v>
+      </c>
+      <c r="B56" s="6">
+        <v>1</v>
+      </c>
+      <c r="C56" s="65">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5">
         <v>1</v>
       </c>
       <c r="E56" s="5">
@@ -4669,35 +4713,35 @@
       <c r="F56" s="6">
         <v>0</v>
       </c>
-      <c r="G56" s="69"/>
-      <c r="H56" s="90" t="s">
+      <c r="G56" s="72"/>
+      <c r="H56" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I56" s="86">
-        <v>0</v>
-      </c>
-      <c r="J56" s="90">
-        <v>0</v>
-      </c>
-      <c r="K56" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="L56" s="95">
-        <v>1</v>
-      </c>
-      <c r="M56" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="N56" s="95">
-        <v>1</v>
-      </c>
-      <c r="O56" s="2">
-        <v>1</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0</v>
+      </c>
+      <c r="K56" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="15">
+        <v>1</v>
+      </c>
+      <c r="M56" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="N56" s="15">
+        <v>1</v>
+      </c>
+      <c r="O56" s="70">
+        <v>1</v>
+      </c>
+      <c r="P56" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="70">
         <v>0</v>
       </c>
       <c r="R56" s="32">
@@ -4705,53 +4749,53 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="75">
-        <v>1</v>
-      </c>
-      <c r="B57" s="75">
-        <v>1</v>
-      </c>
-      <c r="C57" s="81">
-        <v>0</v>
-      </c>
-      <c r="D57" s="87">
-        <v>1</v>
-      </c>
-      <c r="E57" s="77">
-        <v>1</v>
-      </c>
-      <c r="F57" s="76">
-        <v>1</v>
-      </c>
-      <c r="G57" s="69"/>
-      <c r="H57" s="91" t="s">
+      <c r="A57" s="59">
+        <v>1</v>
+      </c>
+      <c r="B57" s="61">
+        <v>1</v>
+      </c>
+      <c r="C57" s="66">
+        <v>0</v>
+      </c>
+      <c r="D57" s="62">
+        <v>1</v>
+      </c>
+      <c r="E57" s="62">
+        <v>1</v>
+      </c>
+      <c r="F57" s="61">
+        <v>1</v>
+      </c>
+      <c r="G57" s="72"/>
+      <c r="H57" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="87">
-        <v>0</v>
-      </c>
-      <c r="J57" s="91">
-        <v>0</v>
-      </c>
-      <c r="K57" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="L57" s="97">
-        <v>1</v>
-      </c>
-      <c r="M57" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="N57" s="97">
-        <v>1</v>
-      </c>
-      <c r="O57" s="29">
-        <v>1</v>
-      </c>
-      <c r="P57" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="29">
+      <c r="I57" s="62">
+        <v>0</v>
+      </c>
+      <c r="J57" s="61">
+        <v>0</v>
+      </c>
+      <c r="K57" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="4">
+        <v>1</v>
+      </c>
+      <c r="M57" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="N57" s="4">
+        <v>1</v>
+      </c>
+      <c r="O57" s="80">
+        <v>1</v>
+      </c>
+      <c r="P57" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="80">
         <v>0</v>
       </c>
       <c r="R57" s="4">
@@ -4759,13 +4803,13 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="46">
-        <v>1</v>
-      </c>
-      <c r="B58" s="46">
-        <v>1</v>
-      </c>
-      <c r="C58" s="82">
+      <c r="A58" s="12">
+        <v>1</v>
+      </c>
+      <c r="B58" s="12">
+        <v>1</v>
+      </c>
+      <c r="C58" s="67">
         <v>1</v>
       </c>
       <c r="D58" s="14">
@@ -4777,49 +4821,49 @@
       <c r="F58" s="13">
         <v>0</v>
       </c>
-      <c r="G58" s="69"/>
+      <c r="G58" s="72"/>
       <c r="H58" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="48">
+      <c r="I58" s="14">
         <v>1</v>
       </c>
       <c r="J58" s="13">
         <v>1</v>
       </c>
-      <c r="K58" s="59" t="s">
+      <c r="K58" s="50" t="s">
         <v>16</v>
       </c>
       <c r="L58" s="15">
         <v>0</v>
       </c>
-      <c r="M58" s="59" t="s">
+      <c r="M58" s="50" t="s">
         <v>16</v>
       </c>
       <c r="N58" s="15">
         <v>0</v>
       </c>
-      <c r="O58" s="54">
-        <v>1</v>
-      </c>
-      <c r="P58" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>0</v>
-      </c>
-      <c r="R58" s="55">
+      <c r="O58" s="57">
+        <v>1</v>
+      </c>
+      <c r="P58" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="70">
+        <v>0</v>
+      </c>
+      <c r="R58" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="42">
-        <v>1</v>
-      </c>
-      <c r="B59" s="42">
-        <v>1</v>
-      </c>
-      <c r="C59" s="79">
+      <c r="A59" s="16">
+        <v>1</v>
+      </c>
+      <c r="B59" s="16">
+        <v>1</v>
+      </c>
+      <c r="C59" s="64">
         <v>1</v>
       </c>
       <c r="D59" s="18">
@@ -4831,11 +4875,11 @@
       <c r="F59" s="17">
         <v>1</v>
       </c>
-      <c r="G59" s="69"/>
+      <c r="G59" s="72"/>
       <c r="H59" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="51">
+      <c r="I59" s="18">
         <v>1</v>
       </c>
       <c r="J59" s="17">
@@ -4853,27 +4897,27 @@
       <c r="N59" s="4">
         <v>0</v>
       </c>
-      <c r="O59" s="52">
-        <v>1</v>
-      </c>
-      <c r="P59" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="29">
-        <v>0</v>
-      </c>
-      <c r="R59" s="53">
+      <c r="O59" s="37">
+        <v>1</v>
+      </c>
+      <c r="P59" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="80">
+        <v>0</v>
+      </c>
+      <c r="R59" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="43">
-        <v>1</v>
-      </c>
-      <c r="B60" s="43">
-        <v>1</v>
-      </c>
-      <c r="C60" s="80">
+      <c r="A60" s="19">
+        <v>1</v>
+      </c>
+      <c r="B60" s="19">
+        <v>1</v>
+      </c>
+      <c r="C60" s="65">
         <v>1</v>
       </c>
       <c r="D60" s="5">
@@ -4885,49 +4929,49 @@
       <c r="F60" s="6">
         <v>0</v>
       </c>
-      <c r="G60" s="69"/>
+      <c r="G60" s="72"/>
       <c r="H60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="49">
+      <c r="I60" s="5">
         <v>1</v>
       </c>
       <c r="J60" s="6">
         <v>1</v>
       </c>
-      <c r="K60" s="59" t="s">
+      <c r="K60" s="50" t="s">
         <v>16</v>
       </c>
       <c r="L60" s="15">
         <v>0</v>
       </c>
-      <c r="M60" s="59" t="s">
+      <c r="M60" s="50" t="s">
         <v>16</v>
       </c>
       <c r="N60" s="15">
         <v>0</v>
       </c>
-      <c r="O60" s="54">
-        <v>1</v>
-      </c>
-      <c r="P60" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>0</v>
-      </c>
-      <c r="R60" s="55">
+      <c r="O60" s="57">
+        <v>1</v>
+      </c>
+      <c r="P60" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="70">
+        <v>0</v>
+      </c>
+      <c r="R60" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="42">
-        <v>1</v>
-      </c>
-      <c r="B61" s="42">
-        <v>1</v>
-      </c>
-      <c r="C61" s="79">
+      <c r="A61" s="16">
+        <v>1</v>
+      </c>
+      <c r="B61" s="16">
+        <v>1</v>
+      </c>
+      <c r="C61" s="64">
         <v>1</v>
       </c>
       <c r="D61" s="18">
@@ -4939,11 +4983,11 @@
       <c r="F61" s="17">
         <v>1</v>
       </c>
-      <c r="G61" s="69"/>
+      <c r="G61" s="72"/>
       <c r="H61" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="51">
+      <c r="I61" s="18">
         <v>1</v>
       </c>
       <c r="J61" s="17">
@@ -4961,30 +5005,30 @@
       <c r="N61" s="4">
         <v>0</v>
       </c>
-      <c r="O61" s="52">
-        <v>1</v>
-      </c>
-      <c r="P61" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="29">
-        <v>0</v>
-      </c>
-      <c r="R61" s="53">
+      <c r="O61" s="37">
+        <v>1</v>
+      </c>
+      <c r="P61" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="80">
+        <v>0</v>
+      </c>
+      <c r="R61" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="43">
-        <v>1</v>
-      </c>
-      <c r="B62" s="43">
-        <v>1</v>
-      </c>
-      <c r="C62" s="80">
-        <v>1</v>
-      </c>
-      <c r="D62" s="86">
+      <c r="A62" s="19">
+        <v>1</v>
+      </c>
+      <c r="B62" s="19">
+        <v>1</v>
+      </c>
+      <c r="C62" s="65">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5">
         <v>1</v>
       </c>
       <c r="E62" s="5">
@@ -4993,52 +5037,52 @@
       <c r="F62" s="6">
         <v>0</v>
       </c>
-      <c r="G62" s="69"/>
-      <c r="H62" s="90" t="s">
+      <c r="G62" s="72"/>
+      <c r="H62" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="86">
-        <v>0</v>
-      </c>
-      <c r="J62" s="90">
-        <v>0</v>
-      </c>
-      <c r="K62" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62" s="95">
-        <v>1</v>
-      </c>
-      <c r="M62" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="N62" s="95">
-        <v>1</v>
-      </c>
-      <c r="O62" s="54">
-        <v>1</v>
-      </c>
-      <c r="P62" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>0</v>
-      </c>
-      <c r="R62" s="55">
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
+        <v>0</v>
+      </c>
+      <c r="K62" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" s="15">
+        <v>1</v>
+      </c>
+      <c r="M62" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="N62" s="15">
+        <v>1</v>
+      </c>
+      <c r="O62" s="57">
+        <v>1</v>
+      </c>
+      <c r="P62" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="70">
+        <v>0</v>
+      </c>
+      <c r="R62" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="42">
-        <v>1</v>
-      </c>
-      <c r="B63" s="42">
-        <v>1</v>
-      </c>
-      <c r="C63" s="79">
-        <v>1</v>
-      </c>
-      <c r="D63" s="85">
+      <c r="A63" s="16">
+        <v>1</v>
+      </c>
+      <c r="B63" s="16">
+        <v>1</v>
+      </c>
+      <c r="C63" s="64">
+        <v>1</v>
+      </c>
+      <c r="D63" s="18">
         <v>1</v>
       </c>
       <c r="E63" s="18">
@@ -5047,52 +5091,52 @@
       <c r="F63" s="17">
         <v>1</v>
       </c>
-      <c r="G63" s="69"/>
-      <c r="H63" s="89" t="s">
+      <c r="G63" s="72"/>
+      <c r="H63" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="85">
-        <v>0</v>
-      </c>
-      <c r="J63" s="89">
-        <v>0</v>
-      </c>
-      <c r="K63" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="L63" s="97">
-        <v>1</v>
-      </c>
-      <c r="M63" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="N63" s="97">
-        <v>1</v>
-      </c>
-      <c r="O63" s="52">
-        <v>1</v>
-      </c>
-      <c r="P63" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="29">
-        <v>0</v>
-      </c>
-      <c r="R63" s="53">
+      <c r="I63" s="18">
+        <v>0</v>
+      </c>
+      <c r="J63" s="17">
+        <v>0</v>
+      </c>
+      <c r="K63" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="4">
+        <v>1</v>
+      </c>
+      <c r="M63" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="N63" s="4">
+        <v>1</v>
+      </c>
+      <c r="O63" s="37">
+        <v>1</v>
+      </c>
+      <c r="P63" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="80">
+        <v>0</v>
+      </c>
+      <c r="R63" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="43">
-        <v>1</v>
-      </c>
-      <c r="B64" s="43">
-        <v>1</v>
-      </c>
-      <c r="C64" s="80">
-        <v>1</v>
-      </c>
-      <c r="D64" s="86">
+      <c r="A64" s="19">
+        <v>1</v>
+      </c>
+      <c r="B64" s="19">
+        <v>1</v>
+      </c>
+      <c r="C64" s="65">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5">
         <v>1</v>
       </c>
       <c r="E64" s="5">
@@ -5101,52 +5145,52 @@
       <c r="F64" s="6">
         <v>0</v>
       </c>
-      <c r="G64" s="69"/>
-      <c r="H64" s="90" t="s">
+      <c r="G64" s="72"/>
+      <c r="H64" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I64" s="86">
-        <v>0</v>
-      </c>
-      <c r="J64" s="90">
-        <v>0</v>
-      </c>
-      <c r="K64" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="L64" s="95">
-        <v>1</v>
-      </c>
-      <c r="M64" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="N64" s="95">
-        <v>1</v>
-      </c>
-      <c r="O64" s="54">
-        <v>1</v>
-      </c>
-      <c r="P64" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>0</v>
-      </c>
-      <c r="R64" s="55">
+      <c r="I64" s="5">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>0</v>
+      </c>
+      <c r="K64" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" s="15">
+        <v>1</v>
+      </c>
+      <c r="M64" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="N64" s="15">
+        <v>1</v>
+      </c>
+      <c r="O64" s="57">
+        <v>1</v>
+      </c>
+      <c r="P64" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="70">
+        <v>0</v>
+      </c>
+      <c r="R64" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44">
-        <v>1</v>
-      </c>
-      <c r="B65" s="44">
-        <v>1</v>
-      </c>
-      <c r="C65" s="83">
-        <v>1</v>
-      </c>
-      <c r="D65" s="88">
+      <c r="A65" s="20">
+        <v>1</v>
+      </c>
+      <c r="B65" s="20">
+        <v>1</v>
+      </c>
+      <c r="C65" s="68">
+        <v>1</v>
+      </c>
+      <c r="D65" s="22">
         <v>1</v>
       </c>
       <c r="E65" s="22">
@@ -5155,44 +5199,48 @@
       <c r="F65" s="21">
         <v>1</v>
       </c>
-      <c r="G65" s="70"/>
-      <c r="H65" s="92" t="s">
+      <c r="G65" s="73"/>
+      <c r="H65" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I65" s="88">
-        <v>0</v>
-      </c>
-      <c r="J65" s="92">
-        <v>0</v>
-      </c>
-      <c r="K65" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="L65" s="100">
-        <v>1</v>
-      </c>
-      <c r="M65" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="N65" s="106">
-        <v>1</v>
-      </c>
-      <c r="O65" s="56">
-        <v>1</v>
-      </c>
-      <c r="P65" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="23">
-        <v>0</v>
-      </c>
-      <c r="R65" s="57">
+      <c r="I65" s="22">
+        <v>0</v>
+      </c>
+      <c r="J65" s="21">
+        <v>0</v>
+      </c>
+      <c r="K65" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" s="31">
+        <v>1</v>
+      </c>
+      <c r="M65" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="N65" s="81">
+        <v>1</v>
+      </c>
+      <c r="O65" s="38">
+        <v>1</v>
+      </c>
+      <c r="P65" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="30">
+        <v>0</v>
+      </c>
+      <c r="R65" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:W21"/>
+    <mergeCell ref="U18:W19"/>
+    <mergeCell ref="T18:T19"/>
     <mergeCell ref="G2:G17"/>
     <mergeCell ref="G18:G33"/>
     <mergeCell ref="G34:G49"/>
@@ -5209,12 +5257,236 @@
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="U9:W10"/>
     <mergeCell ref="U7:W8"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:W21"/>
-    <mergeCell ref="U18:W19"/>
-    <mergeCell ref="T18:T19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C5F07C-B5FB-44B5-ACFD-73D5D4AFB25B}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="0.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="57">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <v>0</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="57">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="92">
+        <v>0</v>
+      </c>
+      <c r="B9" s="98">
+        <v>0</v>
+      </c>
+      <c r="C9" s="82">
+        <v>0</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="93">
+        <v>0</v>
+      </c>
+      <c r="B10" s="99">
+        <v>1</v>
+      </c>
+      <c r="C10" s="83">
+        <v>1</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="92">
+        <v>1</v>
+      </c>
+      <c r="B11" s="98">
+        <v>0</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="94">
+        <v>1</v>
+      </c>
+      <c r="B12" s="100">
+        <v>1</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="76"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="76"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:I15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:I17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FSM/v1/FSM_v1.8.xlsx
+++ b/FSM/v1/FSM_v1.8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\OneDrive\Documentos\MEEIC\3Ano\LPI\PI\PI-LPI_I\FSM\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99646EF5-303F-4185-9ACA-B556B196F749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380DD01C-8981-492F-8650-2D2B4E19A276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="-120" windowWidth="27690" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="-120" windowWidth="27750" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="32">
   <si>
     <t>B</t>
   </si>
@@ -110,15 +110,6 @@
   </si>
   <si>
     <t>B1.S5 + B1'.(S1.S8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado </t>
-  </si>
-  <si>
-    <t>BIT1</t>
-  </si>
-  <si>
-    <t>BIT0</t>
   </si>
   <si>
     <t>Q</t>
@@ -856,33 +847,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,9 +877,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,6 +905,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1272,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:R32"/>
     </sheetView>
   </sheetViews>
@@ -1375,7 +1366,7 @@
       <c r="F2" s="13">
         <v>0</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="94" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="25" t="s">
@@ -1411,14 +1402,14 @@
       <c r="R2" s="32">
         <v>0</v>
       </c>
-      <c r="T2" s="77" t="s">
+      <c r="T2" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="74" t="s">
+      <c r="U2" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -1439,7 +1430,7 @@
       <c r="F3" s="17">
         <v>1</v>
       </c>
-      <c r="G3" s="72"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="61" t="s">
         <v>0</v>
       </c>
@@ -1473,10 +1464,10 @@
       <c r="R3" s="4">
         <v>0</v>
       </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
@@ -1497,7 +1488,7 @@
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="72"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="13" t="s">
         <v>7</v>
       </c>
@@ -1531,14 +1522,14 @@
       <c r="R4" s="32">
         <v>0</v>
       </c>
-      <c r="T4" s="77" t="s">
+      <c r="T4" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="75">
-        <v>0</v>
-      </c>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
+      <c r="U4" s="92">
+        <v>0</v>
+      </c>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -1559,7 +1550,7 @@
       <c r="F5" s="17">
         <v>1</v>
       </c>
-      <c r="G5" s="72"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="61" t="s">
         <v>0</v>
       </c>
@@ -1593,10 +1584,10 @@
       <c r="R5" s="4">
         <v>0</v>
       </c>
-      <c r="T5" s="77"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -1617,7 +1608,7 @@
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1671,7 +1662,7 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="72"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="61" t="s">
         <v>0</v>
       </c>
@@ -1705,14 +1696,14 @@
       <c r="R7" s="4">
         <v>0</v>
       </c>
-      <c r="T7" s="77" t="s">
+      <c r="T7" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="74" t="s">
+      <c r="U7" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
@@ -1741,7 +1732,7 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="72"/>
+      <c r="G8" s="95"/>
       <c r="H8" s="13" t="s">
         <v>7</v>
       </c>
@@ -1775,10 +1766,10 @@
       <c r="R8" s="32">
         <v>0</v>
       </c>
-      <c r="T8" s="77"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
       <c r="AA8"/>
       <c r="AB8"/>
       <c r="AC8"/>
@@ -1804,7 +1795,7 @@
       <c r="F9" s="61">
         <v>1</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="95"/>
       <c r="H9" s="61" t="s">
         <v>0</v>
       </c>
@@ -1838,14 +1829,14 @@
       <c r="R9" s="4">
         <v>0</v>
       </c>
-      <c r="T9" s="77" t="s">
+      <c r="T9" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
+      <c r="U9" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
       <c r="AA9"/>
       <c r="AB9"/>
       <c r="AC9"/>
@@ -1871,7 +1862,7 @@
       <c r="F10" s="13">
         <v>0</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="95"/>
       <c r="H10" s="13" t="s">
         <v>7</v>
       </c>
@@ -1905,10 +1896,10 @@
       <c r="R10" s="32">
         <v>0</v>
       </c>
-      <c r="T10" s="77"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
       <c r="AA10"/>
       <c r="AB10"/>
       <c r="AC10"/>
@@ -1934,7 +1925,7 @@
       <c r="F11" s="17">
         <v>1</v>
       </c>
-      <c r="G11" s="72"/>
+      <c r="G11" s="95"/>
       <c r="H11" s="61" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +1984,7 @@
       <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="95"/>
       <c r="H12" s="13" t="s">
         <v>7</v>
       </c>
@@ -2056,7 +2047,7 @@
       <c r="F13" s="17">
         <v>1</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="61" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2110,7 @@
       <c r="F14" s="6">
         <v>0</v>
       </c>
-      <c r="G14" s="72"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="13" t="s">
         <v>7</v>
       </c>
@@ -2182,7 +2173,7 @@
       <c r="F15" s="17">
         <v>1</v>
       </c>
-      <c r="G15" s="72"/>
+      <c r="G15" s="95"/>
       <c r="H15" s="61" t="s">
         <v>0</v>
       </c>
@@ -2245,7 +2236,7 @@
       <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="72"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="13" t="s">
         <v>7</v>
       </c>
@@ -2308,7 +2299,7 @@
       <c r="F17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="73"/>
+      <c r="G17" s="96"/>
       <c r="H17" s="17" t="s">
         <v>0</v>
       </c>
@@ -2371,7 +2362,7 @@
       <c r="F18" s="25">
         <v>0</v>
       </c>
-      <c r="G18" s="71" t="s">
+      <c r="G18" s="94" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="25" t="s">
@@ -2407,14 +2398,14 @@
       <c r="R18" s="32">
         <v>0</v>
       </c>
-      <c r="T18" s="79" t="s">
+      <c r="T18" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="U18" s="74" t="s">
+      <c r="U18" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18"/>
@@ -2443,7 +2434,7 @@
       <c r="F19" s="17">
         <v>1</v>
       </c>
-      <c r="G19" s="72"/>
+      <c r="G19" s="95"/>
       <c r="H19" s="17" t="s">
         <v>0</v>
       </c>
@@ -2477,10 +2468,10 @@
       <c r="R19" s="4">
         <v>0</v>
       </c>
-      <c r="T19" s="79"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19"/>
@@ -2509,7 +2500,7 @@
       <c r="F20" s="6">
         <v>0</v>
       </c>
-      <c r="G20" s="72"/>
+      <c r="G20" s="95"/>
       <c r="H20" s="6" t="s">
         <v>0</v>
       </c>
@@ -2543,14 +2534,14 @@
       <c r="R20" s="32">
         <v>0</v>
       </c>
-      <c r="T20" s="79" t="s">
+      <c r="T20" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="U20" s="75" t="s">
+      <c r="U20" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20"/>
@@ -2579,7 +2570,7 @@
       <c r="F21" s="17">
         <v>1</v>
       </c>
-      <c r="G21" s="72"/>
+      <c r="G21" s="95"/>
       <c r="H21" s="17" t="s">
         <v>0</v>
       </c>
@@ -2613,10 +2604,10 @@
       <c r="R21" s="4">
         <v>0</v>
       </c>
-      <c r="T21" s="79"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="75"/>
-      <c r="W21" s="75"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
       <c r="X21"/>
       <c r="Y21"/>
       <c r="Z21"/>
@@ -2645,7 +2636,7 @@
       <c r="F22" s="6">
         <v>0</v>
       </c>
-      <c r="G22" s="72"/>
+      <c r="G22" s="95"/>
       <c r="H22" s="6" t="s">
         <v>0</v>
       </c>
@@ -2707,7 +2698,7 @@
       <c r="F23" s="17">
         <v>1</v>
       </c>
-      <c r="G23" s="72"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="17" t="s">
         <v>0</v>
       </c>
@@ -2770,7 +2761,7 @@
       <c r="F24" s="6">
         <v>0</v>
       </c>
-      <c r="G24" s="72"/>
+      <c r="G24" s="95"/>
       <c r="H24" s="6" t="s">
         <v>0</v>
       </c>
@@ -2804,14 +2795,14 @@
       <c r="R24" s="32">
         <v>0</v>
       </c>
-      <c r="T24" s="76" t="s">
+      <c r="T24" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="U24" s="74" t="s">
+      <c r="U24" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="93"/>
       <c r="X24"/>
       <c r="Y24"/>
       <c r="Z24"/>
@@ -2840,7 +2831,7 @@
       <c r="F25" s="61">
         <v>1</v>
       </c>
-      <c r="G25" s="72"/>
+      <c r="G25" s="95"/>
       <c r="H25" s="61" t="s">
         <v>0</v>
       </c>
@@ -2874,10 +2865,10 @@
       <c r="R25" s="4">
         <v>0</v>
       </c>
-      <c r="T25" s="76"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
+      <c r="T25" s="97"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
       <c r="X25"/>
       <c r="Y25"/>
       <c r="Z25"/>
@@ -2906,7 +2897,7 @@
       <c r="F26" s="13">
         <v>0</v>
       </c>
-      <c r="G26" s="72"/>
+      <c r="G26" s="95"/>
       <c r="H26" s="13" t="s">
         <v>0</v>
       </c>
@@ -2940,14 +2931,14 @@
       <c r="R26" s="32">
         <v>0</v>
       </c>
-      <c r="T26" s="76" t="s">
+      <c r="T26" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="U26" s="75" t="s">
+      <c r="U26" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="V26" s="75"/>
-      <c r="W26" s="75"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
       <c r="X26"/>
       <c r="Y26"/>
       <c r="Z26"/>
@@ -2976,7 +2967,7 @@
       <c r="F27" s="17">
         <v>1</v>
       </c>
-      <c r="G27" s="72"/>
+      <c r="G27" s="95"/>
       <c r="H27" s="17" t="s">
         <v>0</v>
       </c>
@@ -3010,10 +3001,10 @@
       <c r="R27" s="4">
         <v>0</v>
       </c>
-      <c r="T27" s="76"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="75"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
       <c r="X27"/>
       <c r="Y27"/>
       <c r="Z27"/>
@@ -3042,7 +3033,7 @@
       <c r="F28" s="6">
         <v>0</v>
       </c>
-      <c r="G28" s="72"/>
+      <c r="G28" s="95"/>
       <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
@@ -3105,7 +3096,7 @@
       <c r="F29" s="17">
         <v>1</v>
       </c>
-      <c r="G29" s="72"/>
+      <c r="G29" s="95"/>
       <c r="H29" s="17" t="s">
         <v>10</v>
       </c>
@@ -3168,7 +3159,7 @@
       <c r="F30" s="6">
         <v>0</v>
       </c>
-      <c r="G30" s="72"/>
+      <c r="G30" s="95"/>
       <c r="H30" s="6" t="s">
         <v>0</v>
       </c>
@@ -3231,7 +3222,7 @@
       <c r="F31" s="17">
         <v>1</v>
       </c>
-      <c r="G31" s="72"/>
+      <c r="G31" s="95"/>
       <c r="H31" s="17" t="s">
         <v>0</v>
       </c>
@@ -3293,7 +3284,7 @@
       <c r="F32" s="6">
         <v>0</v>
       </c>
-      <c r="G32" s="72"/>
+      <c r="G32" s="95"/>
       <c r="H32" s="6" t="s">
         <v>10</v>
       </c>
@@ -3355,7 +3346,7 @@
       <c r="F33" s="21">
         <v>1</v>
       </c>
-      <c r="G33" s="73"/>
+      <c r="G33" s="96"/>
       <c r="H33" s="21" t="s">
         <v>10</v>
       </c>
@@ -3417,7 +3408,7 @@
       <c r="F34" s="25">
         <v>0</v>
       </c>
-      <c r="G34" s="71" t="s">
+      <c r="G34" s="94" t="s">
         <v>10</v>
       </c>
       <c r="H34" s="25" t="s">
@@ -3486,7 +3477,7 @@
       <c r="F35" s="17">
         <v>1</v>
       </c>
-      <c r="G35" s="72"/>
+      <c r="G35" s="95"/>
       <c r="H35" s="17" t="s">
         <v>11</v>
       </c>
@@ -3508,13 +3499,13 @@
       <c r="N35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O35" s="80">
-        <v>1</v>
-      </c>
-      <c r="P35" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="80">
+      <c r="O35" s="71">
+        <v>1</v>
+      </c>
+      <c r="P35" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="71">
         <v>0</v>
       </c>
       <c r="R35" s="4">
@@ -3553,7 +3544,7 @@
       <c r="F36" s="6">
         <v>0</v>
       </c>
-      <c r="G36" s="72"/>
+      <c r="G36" s="95"/>
       <c r="H36" s="6" t="s">
         <v>11</v>
       </c>
@@ -3620,7 +3611,7 @@
       <c r="F37" s="17">
         <v>1</v>
       </c>
-      <c r="G37" s="72"/>
+      <c r="G37" s="95"/>
       <c r="H37" s="17" t="s">
         <v>11</v>
       </c>
@@ -3642,13 +3633,13 @@
       <c r="N37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O37" s="80">
-        <v>1</v>
-      </c>
-      <c r="P37" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="80">
+      <c r="O37" s="71">
+        <v>1</v>
+      </c>
+      <c r="P37" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="71">
         <v>0</v>
       </c>
       <c r="R37" s="4">
@@ -3687,7 +3678,7 @@
       <c r="F38" s="6">
         <v>0</v>
       </c>
-      <c r="G38" s="72"/>
+      <c r="G38" s="95"/>
       <c r="H38" s="6" t="s">
         <v>11</v>
       </c>
@@ -3754,7 +3745,7 @@
       <c r="F39" s="17">
         <v>1</v>
       </c>
-      <c r="G39" s="72"/>
+      <c r="G39" s="95"/>
       <c r="H39" s="17" t="s">
         <v>11</v>
       </c>
@@ -3776,13 +3767,13 @@
       <c r="N39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O39" s="80">
-        <v>1</v>
-      </c>
-      <c r="P39" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="80">
+      <c r="O39" s="71">
+        <v>1</v>
+      </c>
+      <c r="P39" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="71">
         <v>0</v>
       </c>
       <c r="R39" s="4">
@@ -3821,7 +3812,7 @@
       <c r="F40" s="6">
         <v>0</v>
       </c>
-      <c r="G40" s="72"/>
+      <c r="G40" s="95"/>
       <c r="H40" s="6" t="s">
         <v>11</v>
       </c>
@@ -3888,7 +3879,7 @@
       <c r="F41" s="61">
         <v>1</v>
       </c>
-      <c r="G41" s="72"/>
+      <c r="G41" s="95"/>
       <c r="H41" s="61" t="s">
         <v>11</v>
       </c>
@@ -3910,13 +3901,13 @@
       <c r="N41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="80">
-        <v>1</v>
-      </c>
-      <c r="P41" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="80">
+      <c r="O41" s="71">
+        <v>1</v>
+      </c>
+      <c r="P41" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="71">
         <v>0</v>
       </c>
       <c r="R41" s="4">
@@ -3955,7 +3946,7 @@
       <c r="F42" s="13">
         <v>0</v>
       </c>
-      <c r="G42" s="72"/>
+      <c r="G42" s="95"/>
       <c r="H42" s="13" t="s">
         <v>11</v>
       </c>
@@ -4009,7 +4000,7 @@
       <c r="F43" s="17">
         <v>1</v>
       </c>
-      <c r="G43" s="72"/>
+      <c r="G43" s="95"/>
       <c r="H43" s="17" t="s">
         <v>11</v>
       </c>
@@ -4034,10 +4025,10 @@
       <c r="O43" s="37">
         <v>1</v>
       </c>
-      <c r="P43" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="80">
+      <c r="P43" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="71">
         <v>0</v>
       </c>
       <c r="R43" s="4">
@@ -4063,7 +4054,7 @@
       <c r="F44" s="6">
         <v>0</v>
       </c>
-      <c r="G44" s="72"/>
+      <c r="G44" s="95"/>
       <c r="H44" s="6" t="s">
         <v>10</v>
       </c>
@@ -4117,7 +4108,7 @@
       <c r="F45" s="17">
         <v>1</v>
       </c>
-      <c r="G45" s="72"/>
+      <c r="G45" s="95"/>
       <c r="H45" s="17" t="s">
         <v>10</v>
       </c>
@@ -4142,10 +4133,10 @@
       <c r="O45" s="37">
         <v>1</v>
       </c>
-      <c r="P45" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="80">
+      <c r="P45" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="71">
         <v>0</v>
       </c>
       <c r="R45" s="4">
@@ -4171,7 +4162,7 @@
       <c r="F46" s="6">
         <v>0</v>
       </c>
-      <c r="G46" s="72"/>
+      <c r="G46" s="95"/>
       <c r="H46" s="6" t="s">
         <v>11</v>
       </c>
@@ -4225,7 +4216,7 @@
       <c r="F47" s="17">
         <v>1</v>
       </c>
-      <c r="G47" s="72"/>
+      <c r="G47" s="95"/>
       <c r="H47" s="17" t="s">
         <v>11</v>
       </c>
@@ -4250,10 +4241,10 @@
       <c r="O47" s="37">
         <v>1</v>
       </c>
-      <c r="P47" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="80">
+      <c r="P47" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="71">
         <v>0</v>
       </c>
       <c r="R47" s="4">
@@ -4279,7 +4270,7 @@
       <c r="F48" s="6">
         <v>0</v>
       </c>
-      <c r="G48" s="72"/>
+      <c r="G48" s="95"/>
       <c r="H48" s="6" t="s">
         <v>10</v>
       </c>
@@ -4333,7 +4324,7 @@
       <c r="F49" s="21">
         <v>1</v>
       </c>
-      <c r="G49" s="73"/>
+      <c r="G49" s="96"/>
       <c r="H49" s="21" t="s">
         <v>10</v>
       </c>
@@ -4387,7 +4378,7 @@
       <c r="F50" s="25">
         <v>0</v>
       </c>
-      <c r="G50" s="71" t="s">
+      <c r="G50" s="94" t="s">
         <v>11</v>
       </c>
       <c r="H50" s="25" t="s">
@@ -4443,7 +4434,7 @@
       <c r="F51" s="17">
         <v>1</v>
       </c>
-      <c r="G51" s="72"/>
+      <c r="G51" s="95"/>
       <c r="H51" s="17" t="s">
         <v>11</v>
       </c>
@@ -4465,13 +4456,13 @@
       <c r="N51" s="4">
         <v>0</v>
       </c>
-      <c r="O51" s="80">
-        <v>1</v>
-      </c>
-      <c r="P51" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="80">
+      <c r="O51" s="71">
+        <v>1</v>
+      </c>
+      <c r="P51" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="71">
         <v>0</v>
       </c>
       <c r="R51" s="4">
@@ -4497,7 +4488,7 @@
       <c r="F52" s="6">
         <v>0</v>
       </c>
-      <c r="G52" s="72"/>
+      <c r="G52" s="95"/>
       <c r="H52" s="6" t="s">
         <v>11</v>
       </c>
@@ -4551,7 +4542,7 @@
       <c r="F53" s="17">
         <v>1</v>
       </c>
-      <c r="G53" s="72"/>
+      <c r="G53" s="95"/>
       <c r="H53" s="17" t="s">
         <v>11</v>
       </c>
@@ -4573,13 +4564,13 @@
       <c r="N53" s="4">
         <v>0</v>
       </c>
-      <c r="O53" s="80">
-        <v>1</v>
-      </c>
-      <c r="P53" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="80">
+      <c r="O53" s="71">
+        <v>1</v>
+      </c>
+      <c r="P53" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="71">
         <v>0</v>
       </c>
       <c r="R53" s="4">
@@ -4605,7 +4596,7 @@
       <c r="F54" s="6">
         <v>0</v>
       </c>
-      <c r="G54" s="72"/>
+      <c r="G54" s="95"/>
       <c r="H54" s="6" t="s">
         <v>7</v>
       </c>
@@ -4659,7 +4650,7 @@
       <c r="F55" s="17">
         <v>1</v>
       </c>
-      <c r="G55" s="72"/>
+      <c r="G55" s="95"/>
       <c r="H55" s="17" t="s">
         <v>7</v>
       </c>
@@ -4681,13 +4672,13 @@
       <c r="N55" s="4">
         <v>1</v>
       </c>
-      <c r="O55" s="80">
-        <v>1</v>
-      </c>
-      <c r="P55" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="80">
+      <c r="O55" s="71">
+        <v>1</v>
+      </c>
+      <c r="P55" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="71">
         <v>0</v>
       </c>
       <c r="R55" s="4">
@@ -4713,7 +4704,7 @@
       <c r="F56" s="6">
         <v>0</v>
       </c>
-      <c r="G56" s="72"/>
+      <c r="G56" s="95"/>
       <c r="H56" s="6" t="s">
         <v>7</v>
       </c>
@@ -4767,7 +4758,7 @@
       <c r="F57" s="61">
         <v>1</v>
       </c>
-      <c r="G57" s="72"/>
+      <c r="G57" s="95"/>
       <c r="H57" s="61" t="s">
         <v>7</v>
       </c>
@@ -4789,13 +4780,13 @@
       <c r="N57" s="4">
         <v>1</v>
       </c>
-      <c r="O57" s="80">
-        <v>1</v>
-      </c>
-      <c r="P57" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="80">
+      <c r="O57" s="71">
+        <v>1</v>
+      </c>
+      <c r="P57" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="71">
         <v>0</v>
       </c>
       <c r="R57" s="4">
@@ -4821,7 +4812,7 @@
       <c r="F58" s="13">
         <v>0</v>
       </c>
-      <c r="G58" s="72"/>
+      <c r="G58" s="95"/>
       <c r="H58" s="13" t="s">
         <v>11</v>
       </c>
@@ -4875,7 +4866,7 @@
       <c r="F59" s="17">
         <v>1</v>
       </c>
-      <c r="G59" s="72"/>
+      <c r="G59" s="95"/>
       <c r="H59" s="17" t="s">
         <v>11</v>
       </c>
@@ -4900,10 +4891,10 @@
       <c r="O59" s="37">
         <v>1</v>
       </c>
-      <c r="P59" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="80">
+      <c r="P59" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="71">
         <v>0</v>
       </c>
       <c r="R59" s="4">
@@ -4929,7 +4920,7 @@
       <c r="F60" s="6">
         <v>0</v>
       </c>
-      <c r="G60" s="72"/>
+      <c r="G60" s="95"/>
       <c r="H60" s="6" t="s">
         <v>11</v>
       </c>
@@ -4983,7 +4974,7 @@
       <c r="F61" s="17">
         <v>1</v>
       </c>
-      <c r="G61" s="72"/>
+      <c r="G61" s="95"/>
       <c r="H61" s="17" t="s">
         <v>11</v>
       </c>
@@ -5008,10 +4999,10 @@
       <c r="O61" s="37">
         <v>1</v>
       </c>
-      <c r="P61" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="80">
+      <c r="P61" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="71">
         <v>0</v>
       </c>
       <c r="R61" s="4">
@@ -5037,7 +5028,7 @@
       <c r="F62" s="6">
         <v>0</v>
       </c>
-      <c r="G62" s="72"/>
+      <c r="G62" s="95"/>
       <c r="H62" s="6" t="s">
         <v>7</v>
       </c>
@@ -5091,7 +5082,7 @@
       <c r="F63" s="17">
         <v>1</v>
       </c>
-      <c r="G63" s="72"/>
+      <c r="G63" s="95"/>
       <c r="H63" s="17" t="s">
         <v>7</v>
       </c>
@@ -5116,10 +5107,10 @@
       <c r="O63" s="37">
         <v>1</v>
       </c>
-      <c r="P63" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="80">
+      <c r="P63" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="71">
         <v>0</v>
       </c>
       <c r="R63" s="4">
@@ -5145,7 +5136,7 @@
       <c r="F64" s="6">
         <v>0</v>
       </c>
-      <c r="G64" s="72"/>
+      <c r="G64" s="95"/>
       <c r="H64" s="6" t="s">
         <v>7</v>
       </c>
@@ -5199,7 +5190,7 @@
       <c r="F65" s="21">
         <v>1</v>
       </c>
-      <c r="G65" s="73"/>
+      <c r="G65" s="96"/>
       <c r="H65" s="21" t="s">
         <v>7</v>
       </c>
@@ -5218,7 +5209,7 @@
       <c r="M65" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="N65" s="81">
+      <c r="N65" s="72">
         <v>1</v>
       </c>
       <c r="O65" s="38">
@@ -5237,12 +5228,6 @@
     <row r="66" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:W21"/>
-    <mergeCell ref="U18:W19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="G2:G17"/>
-    <mergeCell ref="G18:G33"/>
     <mergeCell ref="G34:G49"/>
     <mergeCell ref="G50:G65"/>
     <mergeCell ref="U2:W3"/>
@@ -5257,6 +5242,12 @@
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="U9:W10"/>
     <mergeCell ref="U7:W8"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:W21"/>
+    <mergeCell ref="U18:W19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="G2:G17"/>
+    <mergeCell ref="G18:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5267,8 +5258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C5F07C-B5FB-44B5-ACFD-73D5D4AFB25B}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5277,14 +5268,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>28</v>
+      <c r="A1" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5294,7 +5285,7 @@
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="78" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5305,7 +5296,7 @@
       <c r="B3" s="29">
         <v>1</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="79" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5316,7 +5307,7 @@
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="78" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5327,142 +5318,142 @@
       <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="80" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="92">
-        <v>0</v>
-      </c>
-      <c r="B9" s="98">
-        <v>0</v>
-      </c>
-      <c r="C9" s="82">
-        <v>0</v>
-      </c>
-      <c r="D9" s="87" t="s">
+      <c r="A9" s="82">
+        <v>0</v>
+      </c>
+      <c r="B9" s="88">
+        <v>0</v>
+      </c>
+      <c r="C9" s="73">
+        <v>0</v>
+      </c>
+      <c r="D9" s="78" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="93">
-        <v>0</v>
-      </c>
-      <c r="B10" s="99">
-        <v>1</v>
-      </c>
-      <c r="C10" s="83">
-        <v>1</v>
-      </c>
-      <c r="D10" s="88" t="s">
+      <c r="A10" s="83">
+        <v>0</v>
+      </c>
+      <c r="B10" s="89">
+        <v>1</v>
+      </c>
+      <c r="C10" s="74">
+        <v>1</v>
+      </c>
+      <c r="D10" s="79" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="92">
-        <v>1</v>
-      </c>
-      <c r="B11" s="98">
-        <v>0</v>
-      </c>
-      <c r="C11" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="87">
+      <c r="A11" s="82">
+        <v>1</v>
+      </c>
+      <c r="B11" s="88">
+        <v>0</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="78">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="94">
-        <v>1</v>
-      </c>
-      <c r="B12" s="100">
-        <v>1</v>
-      </c>
-      <c r="C12" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="89">
+      <c r="A12" s="84">
+        <v>1</v>
+      </c>
+      <c r="B12" s="90">
+        <v>1</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="80">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="79" t="s">
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="74" t="s">
+      <c r="G14" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="79" t="s">
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="75" t="s">
+      <c r="G16" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
